--- a/R-Scripts/CurveTest/Classifiers_CurveDataSet.xlsx
+++ b/R-Scripts/CurveTest/Classifiers_CurveDataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Dropbox\Mein PC (Gemeinsamer-PC)\Documents\GitHub\Ichneumonidae\R-Scripts\CurveTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9A6FDB-40DB-449C-A04C-8BD990933597}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAA1870-1503-4881-8FE8-477F89FAD404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>AREOLET</t>
   </si>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>vagenathina</t>
+  </si>
+  <si>
+    <t>fossil_gelina_g_gelina.JPG</t>
+  </si>
+  <si>
+    <t>Fossil</t>
+  </si>
+  <si>
+    <t>CLOSED</t>
   </si>
 </sst>
 </file>
@@ -655,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B47" si="0" xml:space="preserve"> IF(ISNUMBER(SEARCH("ech",A2)), "Echthrini", IF(ISNUMBER(SEARCH("mes",A2)), "Mestioni", "Gelini"))</f>
+        <f t="shared" ref="B2:B31" si="0" xml:space="preserve"> IF(ISNUMBER(SEARCH("ech",A2)), "Echthrini", IF(ISNUMBER(SEARCH("mes",A2)), "Mestioni", "Gelini"))</f>
         <v>Echthrini</v>
       </c>
       <c r="C2" t="str">
@@ -1475,6 +1484,20 @@
       <c r="D48" t="str">
         <f>VLOOKUP(LEFT(RIGHT(A48,7), 3), Subtribes!$A$1:$B$35, 2, FALSE)</f>
         <v>chiroticina</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
